--- a/WS_tags/tag_3154_list.xlsx
+++ b/WS_tags/tag_3154_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A273"/>
+  <dimension ref="A1:A276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,1362 +387,1377 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>217</v>
+        <v>40158</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>242</v>
+        <v>47870</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>253</v>
+        <v>88158</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>274</v>
+        <v>88913</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>320</v>
+        <v>89729</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>350</v>
+        <v>93795</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>351</v>
+        <v>108013</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>378</v>
+        <v>109970</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>421</v>
+        <v>110883</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>437</v>
+        <v>118494</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>442</v>
+        <v>119448</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>458</v>
+        <v>119648</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>472</v>
+        <v>119732</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>475</v>
+        <v>120365</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>530</v>
+        <v>121178</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>583</v>
+        <v>121587</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>590</v>
+        <v>122332</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>636</v>
+        <v>122854</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>649</v>
+        <v>123276</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>669</v>
+        <v>123558</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>673</v>
+        <v>123644</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>746</v>
+        <v>125507</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>817</v>
+        <v>126743</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>820</v>
+        <v>132365</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>837</v>
+        <v>132460</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>838</v>
+        <v>155451</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>884</v>
+        <v>162495</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>964</v>
+        <v>164962</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>988</v>
+        <v>165146</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>1034</v>
+        <v>183591</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>1036</v>
+        <v>185651</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>1038</v>
+        <v>190831</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>1067</v>
+        <v>193853</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>1078</v>
+        <v>201298</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>1153</v>
+        <v>204285</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>1189</v>
+        <v>215507</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>1264</v>
+        <v>215847</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>1285</v>
+        <v>216611</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>1344</v>
+        <v>217671</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>1351</v>
+        <v>218757</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>1386</v>
+        <v>219976</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>1445</v>
+        <v>224206</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>1462</v>
+        <v>235494</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>1470</v>
+        <v>235828</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>1475</v>
+        <v>238158</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>1496</v>
+        <v>240503</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>1500</v>
+        <v>241397</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>1501</v>
+        <v>241464</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>1502</v>
+        <v>241681</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>1530</v>
+        <v>241949</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>1605</v>
+        <v>241979</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>1606</v>
+        <v>243059</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>1644</v>
+        <v>243791</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>1649</v>
+        <v>248636</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>1664</v>
+        <v>248969</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>1687</v>
+        <v>251162</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>1841</v>
+        <v>253203</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1892</v>
+        <v>253716</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>1904</v>
+        <v>254343</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>1940</v>
+        <v>257341</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>1943</v>
+        <v>258917</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>1983</v>
+        <v>259030</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>1984</v>
+        <v>262037</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>1991</v>
+        <v>262739</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>2038</v>
+        <v>268132</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>2060</v>
+        <v>272018</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>2062</v>
+        <v>275079</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>2084</v>
+        <v>280762</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>2101</v>
+        <v>287730</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>2106</v>
+        <v>288064</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>2125</v>
+        <v>288562</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>2135</v>
+        <v>289177</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>2163</v>
+        <v>290987</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>2174</v>
+        <v>292615</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>2181</v>
+        <v>293646</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>2183</v>
+        <v>294472</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>2186</v>
+        <v>295686</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>2207</v>
+        <v>295715</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>2255</v>
+        <v>298976</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>2256</v>
+        <v>299504</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>2258</v>
+        <v>300771</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>2268</v>
+        <v>306653</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>2325</v>
+        <v>307363</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>2328</v>
+        <v>308330</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>2408</v>
+        <v>309727</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>2441</v>
+        <v>310041</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>2476</v>
+        <v>310820</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>2544</v>
+        <v>311397</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>2591</v>
+        <v>311609</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>2597</v>
+        <v>312217</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>2666</v>
+        <v>312916</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>2678</v>
+        <v>315878</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>2727</v>
+        <v>316822</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>2734</v>
+        <v>316911</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>2761</v>
+        <v>317839</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>2801</v>
+        <v>322121</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>2855</v>
+        <v>325832</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>2869</v>
+        <v>328095</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>2954</v>
+        <v>332471</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>3000</v>
+        <v>337417</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>3003</v>
+        <v>338343</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>3041</v>
+        <v>341725</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>3070</v>
+        <v>342652</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>3078</v>
+        <v>342991</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>3154</v>
+        <v>346257</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>3175</v>
+        <v>347902</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>3206</v>
+        <v>347951</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>3222</v>
+        <v>348350</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>3234</v>
+        <v>351523</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>3282</v>
+        <v>354244</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>3294</v>
+        <v>356267</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>3330</v>
+        <v>357126</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>3345</v>
+        <v>358232</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>3350</v>
+        <v>363882</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>3352</v>
+        <v>365589</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>3362</v>
+        <v>367820</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>3393</v>
+        <v>372281</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>3408</v>
+        <v>376626</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>3489</v>
+        <v>378073</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>3491</v>
+        <v>380135</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>3526</v>
+        <v>381548</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>3552</v>
+        <v>382187</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>3604</v>
+        <v>382699</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>3613</v>
+        <v>386262</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>3618</v>
+        <v>386283</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>3630</v>
+        <v>390610</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>3654</v>
+        <v>394382</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>3695</v>
+        <v>397916</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>3705</v>
+        <v>398172</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>3707</v>
+        <v>398689</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>3710</v>
+        <v>405089</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>3749</v>
+        <v>408511</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>3780</v>
+        <v>409481</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>3881</v>
+        <v>410115</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>3892</v>
+        <v>417267</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>3905</v>
+        <v>417303</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>3983</v>
+        <v>417423</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>4025</v>
+        <v>421205</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>4028</v>
+        <v>424246</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>4030</v>
+        <v>424383</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>4051</v>
+        <v>428684</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>4060</v>
+        <v>434146</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>4063</v>
+        <v>434213</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>4092</v>
+        <v>436846</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>4111</v>
+        <v>443593</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>4113</v>
+        <v>447687</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>4136</v>
+        <v>448337</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>4175</v>
+        <v>452720</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>4196</v>
+        <v>455092</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>4203</v>
+        <v>456139</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>4206</v>
+        <v>463498</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>4209</v>
+        <v>465178</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>4281</v>
+        <v>465768</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>4297</v>
+        <v>466520</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>4337</v>
+        <v>468932</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>4369</v>
+        <v>475753</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>4370</v>
+        <v>476633</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>4372</v>
+        <v>479482</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>4387</v>
+        <v>481150</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>4389</v>
+        <v>483162</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>4419</v>
+        <v>493897</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>4423</v>
+        <v>493937</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>4463</v>
+        <v>498338</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>4511</v>
+        <v>498537</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>4629</v>
+        <v>498983</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>4653</v>
+        <v>504038</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>4719</v>
+        <v>507753</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>4790</v>
+        <v>508083</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>4795</v>
+        <v>511536</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>4802</v>
+        <v>511927</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>4805</v>
+        <v>512170</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>4806</v>
+        <v>514198</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>4843</v>
+        <v>517221</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>4844</v>
+        <v>522074</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>4852</v>
+        <v>523377</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>4854</v>
+        <v>538789</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>4855</v>
+        <v>553964</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>4862</v>
+        <v>569511</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>4863</v>
+        <v>571727</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>4866</v>
+        <v>572146</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>4887</v>
+        <v>574201</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>4889</v>
+        <v>582843</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>4893</v>
+        <v>583212</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>4894</v>
+        <v>587676</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>4895</v>
+        <v>589726</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>4899</v>
+        <v>596752</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>4902</v>
+        <v>607546</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>4909</v>
+        <v>616737</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>4910</v>
+        <v>620124</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>4923</v>
+        <v>621367</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>4927</v>
+        <v>634069</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>4935</v>
+        <v>638180</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>4936</v>
+        <v>640874</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>4946</v>
+        <v>641497</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>4947</v>
+        <v>643006</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>4950</v>
+        <v>644028</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>4958</v>
+        <v>647058</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>4976</v>
+        <v>660469</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>5007</v>
+        <v>661447</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>5008</v>
+        <v>661884</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>5011</v>
+        <v>661943</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>5036</v>
+        <v>664678</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>5044</v>
+        <v>670764</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>5053</v>
+        <v>671000</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>5059</v>
+        <v>705435</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>5068</v>
+        <v>706397</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>5069</v>
+        <v>709589</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>5071</v>
+        <v>710603</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>5074</v>
+        <v>712366</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>5095</v>
+        <v>713200</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>5108</v>
+        <v>716733</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>5116</v>
+        <v>719791</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>5125</v>
+        <v>728383</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>5126</v>
+        <v>734436</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>5128</v>
+        <v>751333</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>5137</v>
+        <v>753355</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>5140</v>
+        <v>753444</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>5149</v>
+        <v>759177</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>5150</v>
+        <v>761591</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>5159</v>
+        <v>769655</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>5160</v>
+        <v>773764</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>5174</v>
+        <v>777674</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>5183</v>
+        <v>777784</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>5189</v>
+        <v>780953</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>5220</v>
+        <v>782556</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>5237</v>
+        <v>783623</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>5246</v>
+        <v>785106</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>5278</v>
+        <v>795336</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>5284</v>
+        <v>812742</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>5309</v>
+        <v>813346</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>5332</v>
+        <v>828459</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>5341</v>
+        <v>828523</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>5429</v>
+        <v>832746</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>5432</v>
+        <v>833745</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>5438</v>
+        <v>836789</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>5443</v>
+        <v>837585</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>5444</v>
+        <v>841386</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>5483</v>
+        <v>845661</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>5484</v>
+        <v>846591</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>5486</v>
+        <v>849647</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>5487</v>
+        <v>852542</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>5488</v>
+        <v>852759</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>5489</v>
+        <v>852761</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>5495</v>
+        <v>852769</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>5496</v>
+        <v>853085</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>5497</v>
+        <v>854864</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>5498</v>
+        <v>854971</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>5506</v>
+        <v>856251</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>5507</v>
+        <v>857280</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>5518</v>
+        <v>857682</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>5519</v>
+        <v>860012</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>5520</v>
+        <v>868033</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>5522</v>
+        <v>869044</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>5524</v>
+        <v>881961</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>5538</v>
+        <v>883422</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>5539</v>
+        <v>885152</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>5540</v>
+        <v>886441</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>5551</v>
+        <v>893257</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>5556</v>
+        <v>894371</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>5559</v>
+        <v>898193</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>5566</v>
+        <v>911223</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>5568</v>
+        <v>913058</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>5570</v>
+        <v>915467</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>5577</v>
+        <v>917044</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>5578</v>
+        <v>917298</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>5580</v>
+        <v>918177</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>5591</v>
+        <v>925568</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>5593</v>
+        <v>925834</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>5596</v>
+        <v>929552</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>5602</v>
+        <v>929813</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>5603</v>
+        <v>930812</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>299600</v>
+        <v>933719</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274">
+        <v>952554</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275">
+        <v>953309</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276">
+        <v>954705</v>
       </c>
     </row>
   </sheetData>

--- a/WS_tags/tag_3154_list.xlsx
+++ b/WS_tags/tag_3154_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A276"/>
+  <dimension ref="A1:A344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,12 +507,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>132460</v>
+        <v>155451</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>155451</v>
+        <v>159889</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -542,1222 +542,1562 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>190831</v>
+        <v>188416</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>193853</v>
+        <v>190831</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>201298</v>
+        <v>193853</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>204285</v>
+        <v>195558</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>215507</v>
+        <v>201298</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>215847</v>
+        <v>204285</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>216611</v>
+        <v>212269</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>217671</v>
+        <v>215507</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>218757</v>
+        <v>215847</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>219976</v>
+        <v>216611</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>224206</v>
+        <v>217671</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>235494</v>
+        <v>218757</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>235828</v>
+        <v>219976</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>238158</v>
+        <v>224206</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>240503</v>
+        <v>235494</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>241397</v>
+        <v>235828</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>241464</v>
+        <v>238158</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>241681</v>
+        <v>240503</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>241949</v>
+        <v>241397</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>241979</v>
+        <v>241464</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>243059</v>
+        <v>241681</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>243791</v>
+        <v>241949</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>248636</v>
+        <v>241979</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>248969</v>
+        <v>243059</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>251162</v>
+        <v>243791</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>253203</v>
+        <v>248636</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>253716</v>
+        <v>248969</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>254343</v>
+        <v>251162</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>257341</v>
+        <v>253203</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>258917</v>
+        <v>253716</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>259030</v>
+        <v>254343</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>262037</v>
+        <v>256871</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>262739</v>
+        <v>257341</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>268132</v>
+        <v>258917</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>272018</v>
+        <v>259030</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>275079</v>
+        <v>262037</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>280762</v>
+        <v>262052</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>287730</v>
+        <v>262739</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>288064</v>
+        <v>268132</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>288562</v>
+        <v>270540</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>289177</v>
+        <v>271638</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>290987</v>
+        <v>271683</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>292615</v>
+        <v>272018</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>293646</v>
+        <v>272353</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>294472</v>
+        <v>275349</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>295686</v>
+        <v>276715</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>295715</v>
+        <v>280762</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>298976</v>
+        <v>287730</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>299504</v>
+        <v>288064</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>300771</v>
+        <v>288562</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>306653</v>
+        <v>289177</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>307363</v>
+        <v>289755</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>308330</v>
+        <v>289995</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>309727</v>
+        <v>290779</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>310041</v>
+        <v>290987</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>310820</v>
+        <v>292572</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>311397</v>
+        <v>292615</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>311609</v>
+        <v>293646</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>312217</v>
+        <v>294472</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>312916</v>
+        <v>294856</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>315878</v>
+        <v>295686</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>316822</v>
+        <v>295715</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>316911</v>
+        <v>295971</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>317839</v>
+        <v>298976</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>322121</v>
+        <v>299504</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>325832</v>
+        <v>300771</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>328095</v>
+        <v>300885</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>332471</v>
+        <v>303902</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>337417</v>
+        <v>306653</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>338343</v>
+        <v>307667</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>341725</v>
+        <v>307879</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>342652</v>
+        <v>308330</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>342991</v>
+        <v>309727</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>346257</v>
+        <v>310041</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>347902</v>
+        <v>310820</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>347951</v>
+        <v>311397</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>348350</v>
+        <v>311609</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>351523</v>
+        <v>312217</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>354244</v>
+        <v>312916</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>356267</v>
+        <v>315878</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>357126</v>
+        <v>316822</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>358232</v>
+        <v>316911</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>363882</v>
+        <v>317839</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>365589</v>
+        <v>319835</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>367820</v>
+        <v>319953</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>372281</v>
+        <v>322121</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>376626</v>
+        <v>322804</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>378073</v>
+        <v>325832</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>380135</v>
+        <v>328095</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>381548</v>
+        <v>332383</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>382187</v>
+        <v>332471</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>382699</v>
+        <v>337417</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>386262</v>
+        <v>338343</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>386283</v>
+        <v>342652</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>390610</v>
+        <v>342991</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>394382</v>
+        <v>346257</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>397916</v>
+        <v>346459</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>398172</v>
+        <v>347902</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>398689</v>
+        <v>347951</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>405089</v>
+        <v>348350</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>408511</v>
+        <v>350017</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>409481</v>
+        <v>351523</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>410115</v>
+        <v>354051</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>417267</v>
+        <v>354244</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>417303</v>
+        <v>356267</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>417423</v>
+        <v>357126</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>421205</v>
+        <v>358232</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>424246</v>
+        <v>359990</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>424383</v>
+        <v>363882</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>428684</v>
+        <v>365589</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>434146</v>
+        <v>367820</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>434213</v>
+        <v>370704</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>436846</v>
+        <v>372787</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>443593</v>
+        <v>376626</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>447687</v>
+        <v>378073</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>448337</v>
+        <v>380135</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>452720</v>
+        <v>381548</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>455092</v>
+        <v>382187</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>456139</v>
+        <v>382699</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>463498</v>
+        <v>386262</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>465178</v>
+        <v>386283</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>465768</v>
+        <v>390610</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>466520</v>
+        <v>390714</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>468932</v>
+        <v>394382</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>475753</v>
+        <v>397916</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>476633</v>
+        <v>398172</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>479482</v>
+        <v>398689</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>481150</v>
+        <v>401250</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>483162</v>
+        <v>405089</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>493897</v>
+        <v>408511</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>493937</v>
+        <v>409419</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>498338</v>
+        <v>409481</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>498537</v>
+        <v>410115</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>498983</v>
+        <v>413185</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>504038</v>
+        <v>417267</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>507753</v>
+        <v>417303</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>508083</v>
+        <v>417423</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>511536</v>
+        <v>421205</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>511927</v>
+        <v>424246</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>512170</v>
+        <v>424383</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>514198</v>
+        <v>428684</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>517221</v>
+        <v>434146</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>522074</v>
+        <v>434213</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>523377</v>
+        <v>436846</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>538789</v>
+        <v>443593</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>553964</v>
+        <v>447687</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>569511</v>
+        <v>448337</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>571727</v>
+        <v>452720</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>572146</v>
+        <v>455092</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>574201</v>
+        <v>456139</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>582843</v>
+        <v>463498</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>583212</v>
+        <v>465178</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>587676</v>
+        <v>465768</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>589726</v>
+        <v>466520</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>596752</v>
+        <v>468932</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>607546</v>
+        <v>475753</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>616737</v>
+        <v>476633</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>620124</v>
+        <v>477800</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>621367</v>
+        <v>479482</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>634069</v>
+        <v>481150</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>638180</v>
+        <v>483162</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>640874</v>
+        <v>483739</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>641497</v>
+        <v>483755</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>643006</v>
+        <v>490401</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>644028</v>
+        <v>493897</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>647058</v>
+        <v>493937</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>660469</v>
+        <v>498338</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>661447</v>
+        <v>498537</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>661884</v>
+        <v>498983</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>661943</v>
+        <v>502139</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>664678</v>
+        <v>504038</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>670764</v>
+        <v>507753</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>671000</v>
+        <v>508083</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>705435</v>
+        <v>511536</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>706397</v>
+        <v>511927</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>709589</v>
+        <v>512170</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>710603</v>
+        <v>514198</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>712366</v>
+        <v>517221</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>713200</v>
+        <v>522074</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>716733</v>
+        <v>523377</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>719791</v>
+        <v>525673</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>728383</v>
+        <v>537303</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>734436</v>
+        <v>538789</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>751333</v>
+        <v>539851</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>753355</v>
+        <v>541659</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>753444</v>
+        <v>553964</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>759177</v>
+        <v>569511</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>761591</v>
+        <v>571727</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>769655</v>
+        <v>572146</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>773764</v>
+        <v>572697</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>777674</v>
+        <v>574201</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>777784</v>
+        <v>578224</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>780953</v>
+        <v>582746</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>782556</v>
+        <v>582843</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>783623</v>
+        <v>583212</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>785106</v>
+        <v>587676</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>795336</v>
+        <v>588895</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>812742</v>
+        <v>589726</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>813346</v>
+        <v>596752</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>828459</v>
+        <v>599899</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>828523</v>
+        <v>602812</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>832746</v>
+        <v>607546</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>833745</v>
+        <v>616737</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>836789</v>
+        <v>620124</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>837585</v>
+        <v>620383</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>841386</v>
+        <v>620970</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>845661</v>
+        <v>621367</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>846591</v>
+        <v>628868</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>849647</v>
+        <v>634069</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>852542</v>
+        <v>634536</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>852759</v>
+        <v>636745</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>852761</v>
+        <v>638180</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>852769</v>
+        <v>638730</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>853085</v>
+        <v>640687</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>854864</v>
+        <v>640733</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>854971</v>
+        <v>640874</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>856251</v>
+        <v>641497</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>857280</v>
+        <v>643006</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>857682</v>
+        <v>644028</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>860012</v>
+        <v>647058</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>868033</v>
+        <v>647345</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>869044</v>
+        <v>660469</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>881961</v>
+        <v>661529</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>883422</v>
+        <v>661884</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>885152</v>
+        <v>661943</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>886441</v>
+        <v>664678</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>893257</v>
+        <v>670764</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>894371</v>
+        <v>671000</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>898193</v>
+        <v>689269</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>911223</v>
+        <v>703936</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>913058</v>
+        <v>705435</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>915467</v>
+        <v>706397</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>917044</v>
+        <v>709589</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>917298</v>
+        <v>710603</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>918177</v>
+        <v>712366</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>925568</v>
+        <v>713200</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>925834</v>
+        <v>716188</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>929552</v>
+        <v>716728</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>929813</v>
+        <v>716733</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>930812</v>
+        <v>719791</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>933719</v>
+        <v>728383</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>952554</v>
+        <v>731343</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>953309</v>
+        <v>734436</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
+        <v>746029</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277">
+        <v>751333</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278">
+        <v>753355</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279">
+        <v>753444</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280">
+        <v>759177</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281">
+        <v>761591</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282">
+        <v>769655</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283">
+        <v>773764</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284">
+        <v>777674</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285">
+        <v>777784</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286">
+        <v>780953</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287">
+        <v>782556</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288">
+        <v>782778</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289">
+        <v>783623</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290">
+        <v>785106</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291">
+        <v>795336</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292">
+        <v>812742</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293">
+        <v>813346</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294">
+        <v>828459</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295">
+        <v>828523</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296">
+        <v>832746</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297">
+        <v>833745</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298">
+        <v>836789</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299">
+        <v>837585</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300">
+        <v>841386</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301">
+        <v>845661</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302">
+        <v>846591</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303">
+        <v>849647</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304">
+        <v>852542</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305">
+        <v>852759</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306">
+        <v>852761</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307">
+        <v>852769</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308">
+        <v>853085</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309">
+        <v>854864</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310">
+        <v>854971</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311">
+        <v>856251</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312">
+        <v>857280</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313">
+        <v>857682</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314">
+        <v>860012</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315">
+        <v>861387</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316">
+        <v>862840</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317">
+        <v>868033</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318">
+        <v>869044</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319">
+        <v>869539</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320">
+        <v>881961</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321">
+        <v>883422</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322">
+        <v>885152</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323">
+        <v>886441</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324">
+        <v>893257</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325">
+        <v>894371</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326">
+        <v>898193</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327">
+        <v>911223</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328">
+        <v>913058</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329">
+        <v>915467</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330">
+        <v>917044</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331">
+        <v>917298</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332">
+        <v>918177</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333">
+        <v>925568</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334">
+        <v>925834</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335">
+        <v>929552</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336">
+        <v>929813</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337">
+        <v>930812</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338">
+        <v>933719</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339">
+        <v>952554</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340">
+        <v>953309</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341">
         <v>954705</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342">
+        <v>959934</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343">
+        <v>961189</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344">
+        <v>961447</v>
       </c>
     </row>
   </sheetData>

--- a/WS_tags/tag_3154_list.xlsx
+++ b/WS_tags/tag_3154_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A344"/>
+  <dimension ref="A1:A381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,1652 +452,1837 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>120365</v>
+        <v>120041</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>121178</v>
+        <v>120365</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>121587</v>
+        <v>121178</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>122332</v>
+        <v>121587</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>122854</v>
+        <v>122332</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>123276</v>
+        <v>122854</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>123558</v>
+        <v>123276</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>123644</v>
+        <v>123558</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>125507</v>
+        <v>123644</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>126743</v>
+        <v>125507</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>132365</v>
+        <v>125559</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>155451</v>
+        <v>126743</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>159889</v>
+        <v>132365</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>162495</v>
+        <v>132460</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>164962</v>
+        <v>155451</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>165146</v>
+        <v>159889</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>183591</v>
+        <v>162495</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>185651</v>
+        <v>164962</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>188416</v>
+        <v>165146</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>190831</v>
+        <v>183591</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>193853</v>
+        <v>185651</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>195558</v>
+        <v>188416</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>201298</v>
+        <v>190831</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>204285</v>
+        <v>193853</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>212269</v>
+        <v>195558</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>215507</v>
+        <v>201298</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>215847</v>
+        <v>204285</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>216611</v>
+        <v>210147</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>217671</v>
+        <v>212269</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>218757</v>
+        <v>215507</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>219976</v>
+        <v>215847</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>224206</v>
+        <v>216611</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>235494</v>
+        <v>217671</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>235828</v>
+        <v>218757</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>238158</v>
+        <v>219976</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>240503</v>
+        <v>224206</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>241397</v>
+        <v>235494</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>241464</v>
+        <v>235828</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>241681</v>
+        <v>238158</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>241949</v>
+        <v>238961</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>241979</v>
+        <v>240503</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>243059</v>
+        <v>241397</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>243791</v>
+        <v>241464</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>248636</v>
+        <v>241681</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>248969</v>
+        <v>241949</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>251162</v>
+        <v>241979</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>253203</v>
+        <v>243059</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>253716</v>
+        <v>243791</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>254343</v>
+        <v>248636</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>256871</v>
+        <v>248969</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>257341</v>
+        <v>253203</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>258917</v>
+        <v>253716</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>259030</v>
+        <v>254343</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>262037</v>
+        <v>256871</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>262052</v>
+        <v>257341</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>262739</v>
+        <v>258917</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>268132</v>
+        <v>259030</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>270540</v>
+        <v>262037</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>271638</v>
+        <v>262052</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>271683</v>
+        <v>262739</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>272018</v>
+        <v>263685</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>272353</v>
+        <v>266904</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>275349</v>
+        <v>268132</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>276715</v>
+        <v>270540</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>280762</v>
+        <v>271638</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>287730</v>
+        <v>271683</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>288064</v>
+        <v>272018</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>288562</v>
+        <v>272353</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>289177</v>
+        <v>275349</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>289755</v>
+        <v>276715</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>289995</v>
+        <v>280762</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>290779</v>
+        <v>287730</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>290987</v>
+        <v>287916</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>292572</v>
+        <v>288064</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>292615</v>
+        <v>288562</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>293646</v>
+        <v>289177</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>294472</v>
+        <v>289755</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>294856</v>
+        <v>289995</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>295686</v>
+        <v>290779</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>295715</v>
+        <v>290987</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>295971</v>
+        <v>292572</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>298976</v>
+        <v>292615</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>299504</v>
+        <v>294472</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>300771</v>
+        <v>294856</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>300885</v>
+        <v>295686</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>303902</v>
+        <v>295715</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>306653</v>
+        <v>295971</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>307667</v>
+        <v>298976</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>307879</v>
+        <v>299504</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>308330</v>
+        <v>300771</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>309727</v>
+        <v>300885</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>310041</v>
+        <v>303902</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>310820</v>
+        <v>306653</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>311397</v>
+        <v>307667</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>311609</v>
+        <v>308330</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>312217</v>
+        <v>309589</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>312916</v>
+        <v>309727</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>315878</v>
+        <v>310041</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>316822</v>
+        <v>310820</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>316911</v>
+        <v>311397</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>317839</v>
+        <v>311609</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>319835</v>
+        <v>312217</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>319953</v>
+        <v>312916</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>322121</v>
+        <v>315878</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>322804</v>
+        <v>316822</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>325832</v>
+        <v>316911</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>328095</v>
+        <v>317839</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>332383</v>
+        <v>319835</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>332471</v>
+        <v>319953</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>337417</v>
+        <v>322121</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>338343</v>
+        <v>322804</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>342652</v>
+        <v>325832</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>342991</v>
+        <v>328095</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>346257</v>
+        <v>332383</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>346459</v>
+        <v>332471</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>347902</v>
+        <v>337417</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>347951</v>
+        <v>338343</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>348350</v>
+        <v>342652</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>350017</v>
+        <v>342991</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>351523</v>
+        <v>343469</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>354051</v>
+        <v>346257</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>354244</v>
+        <v>346459</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>356267</v>
+        <v>347487</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>357126</v>
+        <v>347902</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>358232</v>
+        <v>347951</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>359990</v>
+        <v>348350</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>363882</v>
+        <v>350017</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>365589</v>
+        <v>351523</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>367820</v>
+        <v>354051</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>370704</v>
+        <v>354244</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>372787</v>
+        <v>355804</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>376626</v>
+        <v>356267</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>378073</v>
+        <v>357126</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>380135</v>
+        <v>358232</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>381548</v>
+        <v>359990</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>382187</v>
+        <v>363882</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>382699</v>
+        <v>365589</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>386262</v>
+        <v>367820</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>386283</v>
+        <v>370704</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>390610</v>
+        <v>376626</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>390714</v>
+        <v>378073</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>394382</v>
+        <v>378227</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>397916</v>
+        <v>380135</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>398172</v>
+        <v>381548</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>398689</v>
+        <v>382187</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>401250</v>
+        <v>382699</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>405089</v>
+        <v>386262</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>408511</v>
+        <v>386283</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>409419</v>
+        <v>390610</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>409481</v>
+        <v>390714</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>410115</v>
+        <v>391863</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>413185</v>
+        <v>392571</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>417267</v>
+        <v>394382</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>417303</v>
+        <v>396409</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>417423</v>
+        <v>397916</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>421205</v>
+        <v>398172</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>424246</v>
+        <v>398689</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>424383</v>
+        <v>401250</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>428684</v>
+        <v>405089</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>434146</v>
+        <v>408511</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>434213</v>
+        <v>409419</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>436846</v>
+        <v>409481</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>443593</v>
+        <v>410115</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>447687</v>
+        <v>413185</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>448337</v>
+        <v>417267</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>452720</v>
+        <v>417303</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>455092</v>
+        <v>417423</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>456139</v>
+        <v>421205</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>463498</v>
+        <v>424246</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>465178</v>
+        <v>424383</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>465768</v>
+        <v>428684</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>466520</v>
+        <v>429027</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>468932</v>
+        <v>434146</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>475753</v>
+        <v>434213</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>476633</v>
+        <v>436846</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>477800</v>
+        <v>443593</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>479482</v>
+        <v>447687</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>481150</v>
+        <v>448337</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>483162</v>
+        <v>452720</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>483739</v>
+        <v>455092</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>483755</v>
+        <v>456139</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>490401</v>
+        <v>462339</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>493897</v>
+        <v>463498</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>493937</v>
+        <v>464565</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>498338</v>
+        <v>465178</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>498537</v>
+        <v>465768</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>498983</v>
+        <v>466520</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>502139</v>
+        <v>468932</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>504038</v>
+        <v>474682</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>507753</v>
+        <v>475753</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>508083</v>
+        <v>476633</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>511536</v>
+        <v>477800</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>511927</v>
+        <v>479482</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>512170</v>
+        <v>481150</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>514198</v>
+        <v>481151</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>517221</v>
+        <v>483162</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>522074</v>
+        <v>483739</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>523377</v>
+        <v>483755</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>525673</v>
+        <v>493897</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>537303</v>
+        <v>493937</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>538789</v>
+        <v>495116</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>539851</v>
+        <v>497353</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>541659</v>
+        <v>498338</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>553964</v>
+        <v>498537</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>569511</v>
+        <v>498983</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>571727</v>
+        <v>502139</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>572146</v>
+        <v>504038</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>572697</v>
+        <v>506504</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>574201</v>
+        <v>507753</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>578224</v>
+        <v>508083</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>582746</v>
+        <v>511536</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>582843</v>
+        <v>511927</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>583212</v>
+        <v>512170</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>587676</v>
+        <v>514198</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>588895</v>
+        <v>517221</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>589726</v>
+        <v>522074</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>596752</v>
+        <v>523377</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>599899</v>
+        <v>525673</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>602812</v>
+        <v>537303</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>607546</v>
+        <v>538789</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>616737</v>
+        <v>539851</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>620124</v>
+        <v>541659</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>620383</v>
+        <v>553964</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>620970</v>
+        <v>569511</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>621367</v>
+        <v>571727</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>628868</v>
+        <v>572146</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>634069</v>
+        <v>572697</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>634536</v>
+        <v>574201</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>636745</v>
+        <v>576170</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>638180</v>
+        <v>578011</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>638730</v>
+        <v>578224</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>640687</v>
+        <v>582746</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>640733</v>
+        <v>582843</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>640874</v>
+        <v>583212</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>641497</v>
+        <v>587676</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>643006</v>
+        <v>588895</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>644028</v>
+        <v>589726</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>647058</v>
+        <v>590491</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>647345</v>
+        <v>596752</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>660469</v>
+        <v>599899</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>661529</v>
+        <v>602812</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>661884</v>
+        <v>607546</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>661943</v>
+        <v>616737</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>664678</v>
+        <v>620124</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>670764</v>
+        <v>620383</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>671000</v>
+        <v>620970</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>689269</v>
+        <v>621367</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>703936</v>
+        <v>621518</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>705435</v>
+        <v>628868</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>706397</v>
+        <v>634069</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>709589</v>
+        <v>634536</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>710603</v>
+        <v>635643</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>712366</v>
+        <v>636745</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>713200</v>
+        <v>638180</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>716188</v>
+        <v>638702</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>716728</v>
+        <v>640687</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>716733</v>
+        <v>640733</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>719791</v>
+        <v>640874</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>728383</v>
+        <v>641497</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>731343</v>
+        <v>643006</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>734436</v>
+        <v>644028</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>746029</v>
+        <v>647058</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>751333</v>
+        <v>647345</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>753355</v>
+        <v>660469</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>753444</v>
+        <v>661529</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>759177</v>
+        <v>661884</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>761591</v>
+        <v>661943</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>769655</v>
+        <v>664367</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>773764</v>
+        <v>664678</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>777674</v>
+        <v>670764</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>777784</v>
+        <v>671000</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>780953</v>
+        <v>689269</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>782556</v>
+        <v>705435</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>782778</v>
+        <v>709589</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>783623</v>
+        <v>710603</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>785106</v>
+        <v>712366</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>795336</v>
+        <v>713200</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>812742</v>
+        <v>716188</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>813346</v>
+        <v>716728</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>828459</v>
+        <v>716733</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>828523</v>
+        <v>719791</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>832746</v>
+        <v>728383</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>833745</v>
+        <v>730699</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>836789</v>
+        <v>731343</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>837585</v>
+        <v>734436</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>841386</v>
+        <v>738395</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>845661</v>
+        <v>746029</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>846591</v>
+        <v>751333</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>849647</v>
+        <v>753209</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>852542</v>
+        <v>753355</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>852759</v>
+        <v>753444</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>852761</v>
+        <v>759177</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>852769</v>
+        <v>761591</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>853085</v>
+        <v>769655</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>854864</v>
+        <v>773764</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>854971</v>
+        <v>777674</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>856251</v>
+        <v>777784</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>857280</v>
+        <v>780953</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>857682</v>
+        <v>782416</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>860012</v>
+        <v>782556</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>861387</v>
+        <v>782778</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>862840</v>
+        <v>783623</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>868033</v>
+        <v>785106</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>869044</v>
+        <v>795336</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>869539</v>
+        <v>812742</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>881961</v>
+        <v>813346</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>883422</v>
+        <v>819365</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>885152</v>
+        <v>828459</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>886441</v>
+        <v>828523</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>893257</v>
+        <v>832746</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>894371</v>
+        <v>833233</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>898193</v>
+        <v>833745</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>911223</v>
+        <v>836789</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>913058</v>
+        <v>837585</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>915467</v>
+        <v>841386</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>917044</v>
+        <v>844619</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>917298</v>
+        <v>845661</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>918177</v>
+        <v>846591</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>925568</v>
+        <v>849647</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>925834</v>
+        <v>852542</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>929552</v>
+        <v>852759</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>929813</v>
+        <v>852761</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>930812</v>
+        <v>852769</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>933719</v>
+        <v>853085</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>952554</v>
+        <v>854864</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>953309</v>
+        <v>854971</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>954705</v>
+        <v>856251</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>959934</v>
+        <v>857280</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>961189</v>
+        <v>857682</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
+        <v>860012</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345">
+        <v>861387</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346">
+        <v>862840</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347">
+        <v>868033</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348">
+        <v>869044</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349">
+        <v>869539</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350">
+        <v>870649</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351">
+        <v>881961</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352">
+        <v>883422</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353">
+        <v>885152</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354">
+        <v>886441</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355">
+        <v>893257</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356">
+        <v>894371</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357">
+        <v>898193</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358">
+        <v>911223</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359">
+        <v>912599</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360">
+        <v>913058</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361">
+        <v>915467</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362">
+        <v>917044</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363">
+        <v>917298</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364">
+        <v>918177</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365">
+        <v>925568</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366">
+        <v>925834</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367">
+        <v>929552</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368">
+        <v>929813</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369">
+        <v>930812</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370">
+        <v>933719</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371">
+        <v>947766</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372">
+        <v>952554</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373">
+        <v>953309</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374">
+        <v>954705</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375">
+        <v>959934</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376">
+        <v>961189</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377">
         <v>961447</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378">
+        <v>963100</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379">
+        <v>966864</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380">
+        <v>967541</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381">
+        <v>967728</v>
       </c>
     </row>
   </sheetData>

--- a/WS_tags/tag_3154_list.xlsx
+++ b/WS_tags/tag_3154_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A381"/>
+  <dimension ref="A1:A387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -737,1551 +737,1581 @@
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>262037</v>
+        <v>261906</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>262052</v>
+        <v>262037</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>262739</v>
+        <v>262052</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>263685</v>
+        <v>262739</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>266904</v>
+        <v>263685</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>268132</v>
+        <v>266904</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>270540</v>
+        <v>268132</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>271638</v>
+        <v>270046</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>271683</v>
+        <v>270540</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>272018</v>
+        <v>271638</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>272353</v>
+        <v>271683</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>275349</v>
+        <v>272018</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>276715</v>
+        <v>272353</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>280762</v>
+        <v>275349</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>287730</v>
+        <v>276715</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>287916</v>
+        <v>280762</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>288064</v>
+        <v>287730</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>288562</v>
+        <v>287916</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>289177</v>
+        <v>288064</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>289755</v>
+        <v>288562</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>289995</v>
+        <v>289177</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>290779</v>
+        <v>289755</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>290987</v>
+        <v>289995</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>292572</v>
+        <v>290779</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>292615</v>
+        <v>290987</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>294472</v>
+        <v>292572</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>294856</v>
+        <v>292615</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>295686</v>
+        <v>294472</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>295715</v>
+        <v>294856</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>295971</v>
+        <v>295686</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>298976</v>
+        <v>295715</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>299504</v>
+        <v>295971</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>300771</v>
+        <v>298976</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>300885</v>
+        <v>299504</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>303902</v>
+        <v>300771</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>306653</v>
+        <v>300885</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>307667</v>
+        <v>303902</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>308330</v>
+        <v>306653</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>309589</v>
+        <v>307667</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>309727</v>
+        <v>307879</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>310041</v>
+        <v>308330</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>310820</v>
+        <v>309589</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>311397</v>
+        <v>309727</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>311609</v>
+        <v>310041</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>312217</v>
+        <v>310820</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>312916</v>
+        <v>311397</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>315878</v>
+        <v>311609</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>316822</v>
+        <v>312217</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>316911</v>
+        <v>312916</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>317839</v>
+        <v>315878</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>319835</v>
+        <v>316822</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>319953</v>
+        <v>316911</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>322121</v>
+        <v>317839</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>322804</v>
+        <v>319835</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>325832</v>
+        <v>319953</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>328095</v>
+        <v>322121</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>332383</v>
+        <v>322804</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>332471</v>
+        <v>325832</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>337417</v>
+        <v>328095</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>338343</v>
+        <v>332383</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>342652</v>
+        <v>332471</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>342991</v>
+        <v>337417</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>343469</v>
+        <v>338343</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>346257</v>
+        <v>342652</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>346459</v>
+        <v>342991</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>347487</v>
+        <v>343469</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>347902</v>
+        <v>346257</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>347951</v>
+        <v>346459</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>348350</v>
+        <v>347487</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>350017</v>
+        <v>347902</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>351523</v>
+        <v>347951</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>354051</v>
+        <v>348350</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>354244</v>
+        <v>350017</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>355804</v>
+        <v>351523</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>356267</v>
+        <v>354051</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>357126</v>
+        <v>354244</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>358232</v>
+        <v>355804</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>359990</v>
+        <v>356267</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>363882</v>
+        <v>357126</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>365589</v>
+        <v>358232</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>367820</v>
+        <v>359990</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>370704</v>
+        <v>363882</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>376626</v>
+        <v>365589</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>378073</v>
+        <v>367820</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>378227</v>
+        <v>370704</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>380135</v>
+        <v>376626</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>381548</v>
+        <v>378073</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>382187</v>
+        <v>378227</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>382699</v>
+        <v>380135</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>386262</v>
+        <v>381548</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>386283</v>
+        <v>382187</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>390610</v>
+        <v>382699</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>390714</v>
+        <v>386262</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>391863</v>
+        <v>386283</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>392571</v>
+        <v>390610</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>394382</v>
+        <v>390714</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>396409</v>
+        <v>391863</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>397916</v>
+        <v>392571</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>398172</v>
+        <v>394382</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>398689</v>
+        <v>396409</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>401250</v>
+        <v>397916</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>405089</v>
+        <v>398172</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>408511</v>
+        <v>398689</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>409419</v>
+        <v>401250</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>409481</v>
+        <v>405089</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>410115</v>
+        <v>408511</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>413185</v>
+        <v>409419</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>417267</v>
+        <v>409481</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>417303</v>
+        <v>410115</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>417423</v>
+        <v>413185</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>421205</v>
+        <v>417267</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>424246</v>
+        <v>417303</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>424383</v>
+        <v>417423</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>428684</v>
+        <v>421205</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>429027</v>
+        <v>424246</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>434146</v>
+        <v>424383</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>434213</v>
+        <v>428684</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>436846</v>
+        <v>429027</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>443593</v>
+        <v>434146</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>447687</v>
+        <v>434213</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>448337</v>
+        <v>436846</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>452720</v>
+        <v>443593</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>455092</v>
+        <v>447687</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>456139</v>
+        <v>448337</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>462339</v>
+        <v>452720</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>463498</v>
+        <v>455092</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>464565</v>
+        <v>456139</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>465178</v>
+        <v>462339</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>465768</v>
+        <v>463498</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>466520</v>
+        <v>464565</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>468932</v>
+        <v>465178</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>474682</v>
+        <v>465768</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>475753</v>
+        <v>466520</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>476633</v>
+        <v>468932</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>477800</v>
+        <v>474682</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>479482</v>
+        <v>475753</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>481150</v>
+        <v>476633</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>481151</v>
+        <v>477800</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>483162</v>
+        <v>479482</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>483739</v>
+        <v>481150</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>483755</v>
+        <v>481151</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>493897</v>
+        <v>483162</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>493937</v>
+        <v>483739</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>495116</v>
+        <v>483755</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>497353</v>
+        <v>493897</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>498338</v>
+        <v>493937</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>498537</v>
+        <v>495116</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>498983</v>
+        <v>497353</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>502139</v>
+        <v>498338</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>504038</v>
+        <v>498537</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>506504</v>
+        <v>498983</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>507753</v>
+        <v>502139</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>508083</v>
+        <v>504038</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>511536</v>
+        <v>506504</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>511927</v>
+        <v>507753</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>512170</v>
+        <v>508083</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>514198</v>
+        <v>511536</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>517221</v>
+        <v>511927</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>522074</v>
+        <v>512170</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>523377</v>
+        <v>514198</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>525673</v>
+        <v>517221</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>537303</v>
+        <v>522074</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>538789</v>
+        <v>523377</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>539851</v>
+        <v>525673</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>541659</v>
+        <v>537303</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>553964</v>
+        <v>538789</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>569511</v>
+        <v>539851</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>571727</v>
+        <v>541659</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>572146</v>
+        <v>553964</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>572697</v>
+        <v>563775</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>574201</v>
+        <v>569511</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>576170</v>
+        <v>571727</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>578011</v>
+        <v>572146</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>578224</v>
+        <v>572697</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>582746</v>
+        <v>574201</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>582843</v>
+        <v>576170</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>583212</v>
+        <v>578011</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>587676</v>
+        <v>578224</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>588895</v>
+        <v>582746</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>589726</v>
+        <v>582843</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>590491</v>
+        <v>583212</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>596752</v>
+        <v>587676</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>599899</v>
+        <v>588895</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>602812</v>
+        <v>589726</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>607546</v>
+        <v>590491</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>616737</v>
+        <v>596752</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>620124</v>
+        <v>599899</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>620383</v>
+        <v>602812</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>620970</v>
+        <v>607546</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>621367</v>
+        <v>616737</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>621518</v>
+        <v>620124</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>628868</v>
+        <v>620383</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>634069</v>
+        <v>620970</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>634536</v>
+        <v>621367</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>635643</v>
+        <v>621518</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>636745</v>
+        <v>628868</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>638180</v>
+        <v>634069</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>638702</v>
+        <v>634536</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>640687</v>
+        <v>635490</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>640733</v>
+        <v>635643</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>640874</v>
+        <v>636745</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>641497</v>
+        <v>638180</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>643006</v>
+        <v>638702</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>644028</v>
+        <v>640687</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>647058</v>
+        <v>640733</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>647345</v>
+        <v>640874</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>660469</v>
+        <v>641497</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>661529</v>
+        <v>643006</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>661884</v>
+        <v>644028</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>661943</v>
+        <v>647058</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>664367</v>
+        <v>647345</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>664678</v>
+        <v>660469</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>670764</v>
+        <v>661529</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>671000</v>
+        <v>661884</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>689269</v>
+        <v>661943</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>705435</v>
+        <v>664367</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>709589</v>
+        <v>664678</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>710603</v>
+        <v>670764</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>712366</v>
+        <v>671000</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>713200</v>
+        <v>689269</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>716188</v>
+        <v>699072</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>716728</v>
+        <v>705435</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>716733</v>
+        <v>709589</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>719791</v>
+        <v>710603</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>728383</v>
+        <v>712366</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>730699</v>
+        <v>713200</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>731343</v>
+        <v>716188</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>734436</v>
+        <v>716728</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>738395</v>
+        <v>716733</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>746029</v>
+        <v>719791</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>751333</v>
+        <v>728383</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>753209</v>
+        <v>730699</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>753355</v>
+        <v>731343</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>753444</v>
+        <v>734436</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>759177</v>
+        <v>738395</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>761591</v>
+        <v>746029</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>769655</v>
+        <v>751333</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>773764</v>
+        <v>753209</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>777674</v>
+        <v>753355</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>777784</v>
+        <v>753444</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>780953</v>
+        <v>759177</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>782416</v>
+        <v>761591</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>782556</v>
+        <v>769655</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>782778</v>
+        <v>773764</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>783623</v>
+        <v>777674</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>785106</v>
+        <v>777784</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>795336</v>
+        <v>780953</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>812742</v>
+        <v>782416</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>813346</v>
+        <v>782556</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>819365</v>
+        <v>782778</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>828459</v>
+        <v>783623</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>828523</v>
+        <v>785106</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>832746</v>
+        <v>795336</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>833233</v>
+        <v>812742</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>833745</v>
+        <v>813346</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>836789</v>
+        <v>819365</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>837585</v>
+        <v>828459</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>841386</v>
+        <v>828523</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>844619</v>
+        <v>832746</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>845661</v>
+        <v>833233</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>846591</v>
+        <v>833745</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>849647</v>
+        <v>836789</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>852542</v>
+        <v>837585</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>852759</v>
+        <v>841386</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>852761</v>
+        <v>844619</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>852769</v>
+        <v>845661</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>853085</v>
+        <v>846591</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>854864</v>
+        <v>849647</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>854971</v>
+        <v>852542</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>856251</v>
+        <v>852759</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>857280</v>
+        <v>852761</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>857682</v>
+        <v>852769</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>860012</v>
+        <v>853085</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>861387</v>
+        <v>854864</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>862840</v>
+        <v>854971</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>868033</v>
+        <v>856251</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>869044</v>
+        <v>857280</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>869539</v>
+        <v>857682</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>870649</v>
+        <v>860012</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>881961</v>
+        <v>861387</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>883422</v>
+        <v>862840</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>885152</v>
+        <v>868033</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>886441</v>
+        <v>869044</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>893257</v>
+        <v>869539</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>894371</v>
+        <v>870649</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>898193</v>
+        <v>881961</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>911223</v>
+        <v>883422</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>912599</v>
+        <v>885152</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>913058</v>
+        <v>886441</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>915467</v>
+        <v>893257</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>917044</v>
+        <v>894371</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>917298</v>
+        <v>898193</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>918177</v>
+        <v>911223</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>925568</v>
+        <v>912599</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>925834</v>
+        <v>913058</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>929552</v>
+        <v>915467</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>929813</v>
+        <v>917044</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>930812</v>
+        <v>917298</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>933719</v>
+        <v>918177</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>947766</v>
+        <v>925568</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>952554</v>
+        <v>925834</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>953309</v>
+        <v>929552</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>954705</v>
+        <v>929813</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>959934</v>
+        <v>930812</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>961189</v>
+        <v>933719</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>961447</v>
+        <v>947766</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>963100</v>
+        <v>952554</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>966864</v>
+        <v>953309</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>967541</v>
+        <v>954705</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
+        <v>959934</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382">
+        <v>961189</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383">
+        <v>961447</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384">
+        <v>963100</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385">
+        <v>966864</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386">
+        <v>967541</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387">
         <v>967728</v>
       </c>
     </row>

--- a/WS_tags/tag_3154_list.xlsx
+++ b/WS_tags/tag_3154_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A387"/>
+  <dimension ref="A1:A402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,297 +407,297 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>89729</v>
+        <v>93795</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>93795</v>
+        <v>108013</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>108013</v>
+        <v>109970</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>109970</v>
+        <v>110883</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>110883</v>
+        <v>118494</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>118494</v>
+        <v>119448</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>119448</v>
+        <v>119648</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>119648</v>
+        <v>119732</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>119732</v>
+        <v>120041</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>120041</v>
+        <v>120365</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>120365</v>
+        <v>121178</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>121178</v>
+        <v>121587</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>121587</v>
+        <v>122332</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>122332</v>
+        <v>122854</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>122854</v>
+        <v>123276</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>123276</v>
+        <v>123558</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>123558</v>
+        <v>123644</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>123644</v>
+        <v>125507</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>125507</v>
+        <v>125559</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>125559</v>
+        <v>126743</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>126743</v>
+        <v>132365</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>132365</v>
+        <v>155451</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>132460</v>
+        <v>159889</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>155451</v>
+        <v>162495</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>159889</v>
+        <v>164962</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>162495</v>
+        <v>165146</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>164962</v>
+        <v>183591</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>165146</v>
+        <v>185651</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>183591</v>
+        <v>188361</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>185651</v>
+        <v>188416</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>188416</v>
+        <v>190831</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>190831</v>
+        <v>193853</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>193853</v>
+        <v>195558</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>195558</v>
+        <v>201298</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>201298</v>
+        <v>204285</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>204285</v>
+        <v>210147</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>210147</v>
+        <v>212269</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>212269</v>
+        <v>215507</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>215507</v>
+        <v>215847</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>215847</v>
+        <v>216611</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>216611</v>
+        <v>217671</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>217671</v>
+        <v>218757</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>218757</v>
+        <v>219976</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>219976</v>
+        <v>224206</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>224206</v>
+        <v>235494</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>235494</v>
+        <v>235828</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>235828</v>
+        <v>238158</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>238158</v>
+        <v>238961</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>238961</v>
+        <v>240503</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>240503</v>
+        <v>241397</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>241397</v>
+        <v>241464</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>241464</v>
+        <v>241681</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>241681</v>
+        <v>241949</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>241949</v>
+        <v>241979</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>241979</v>
+        <v>243059</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>243059</v>
+        <v>243791</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>243791</v>
+        <v>248636</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>248636</v>
+        <v>248969</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>248969</v>
+        <v>253107</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -762,177 +762,177 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>266904</v>
+        <v>263879</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>268132</v>
+        <v>266904</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>270046</v>
+        <v>268132</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>270540</v>
+        <v>270046</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>271638</v>
+        <v>270540</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>271683</v>
+        <v>271638</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>272018</v>
+        <v>271683</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>272353</v>
+        <v>272018</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>275349</v>
+        <v>272353</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>276715</v>
+        <v>275349</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>280762</v>
+        <v>276715</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>287730</v>
+        <v>280762</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>287916</v>
+        <v>287730</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>288064</v>
+        <v>287916</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>288562</v>
+        <v>288064</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>289177</v>
+        <v>288562</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>289755</v>
+        <v>289177</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>289995</v>
+        <v>289755</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>290779</v>
+        <v>289995</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>290987</v>
+        <v>290779</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>292572</v>
+        <v>290987</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>292615</v>
+        <v>292572</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>294472</v>
+        <v>292615</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>294856</v>
+        <v>294472</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>295686</v>
+        <v>294856</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>295715</v>
+        <v>294977</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>295971</v>
+        <v>295686</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>298976</v>
+        <v>295715</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>299504</v>
+        <v>295971</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>300771</v>
+        <v>298976</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>300885</v>
+        <v>299504</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>303902</v>
+        <v>300771</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>306653</v>
+        <v>300885</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>307667</v>
+        <v>303902</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>307879</v>
+        <v>306653</v>
       </c>
     </row>
     <row r="112" spans="1:1">
@@ -1032,12 +1032,12 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>332383</v>
+        <v>328568</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>332471</v>
+        <v>332383</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -1062,242 +1062,242 @@
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>343469</v>
+        <v>346257</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>346257</v>
+        <v>346459</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>346459</v>
+        <v>347487</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>347487</v>
+        <v>347902</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>347902</v>
+        <v>347951</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>347951</v>
+        <v>348350</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>348350</v>
+        <v>350017</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>350017</v>
+        <v>351523</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>351523</v>
+        <v>354051</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>354051</v>
+        <v>354244</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>354244</v>
+        <v>355804</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>355804</v>
+        <v>356267</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>356267</v>
+        <v>357126</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>357126</v>
+        <v>358232</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>358232</v>
+        <v>359990</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>359990</v>
+        <v>363882</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>363882</v>
+        <v>365589</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>365589</v>
+        <v>367820</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>367820</v>
+        <v>370704</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>370704</v>
+        <v>376626</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>376626</v>
+        <v>378073</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>378073</v>
+        <v>380135</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>378227</v>
+        <v>381548</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>380135</v>
+        <v>382187</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>381548</v>
+        <v>382699</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>382187</v>
+        <v>386262</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>382699</v>
+        <v>386283</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>386262</v>
+        <v>386398</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>386283</v>
+        <v>390610</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>390610</v>
+        <v>390714</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>390714</v>
+        <v>391863</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>391863</v>
+        <v>392571</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>392571</v>
+        <v>394382</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>394382</v>
+        <v>396409</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>396409</v>
+        <v>397916</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>397916</v>
+        <v>398172</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>398172</v>
+        <v>398689</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>398689</v>
+        <v>401250</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>401250</v>
+        <v>405089</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>405089</v>
+        <v>408511</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>408511</v>
+        <v>409419</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>409419</v>
+        <v>409481</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>409481</v>
+        <v>410115</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>410115</v>
+        <v>413185</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>413185</v>
+        <v>417267</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>417267</v>
+        <v>417303</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>417303</v>
+        <v>417423</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>417423</v>
+        <v>418806</v>
       </c>
     </row>
     <row r="185" spans="1:1">
@@ -1342,372 +1342,372 @@
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>443593</v>
+        <v>437072</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>447687</v>
+        <v>443593</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>448337</v>
+        <v>447687</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>452720</v>
+        <v>448337</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>455092</v>
+        <v>452720</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>456139</v>
+        <v>455092</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>462339</v>
+        <v>456139</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>463498</v>
+        <v>462339</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>464565</v>
+        <v>463498</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>465178</v>
+        <v>464565</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>465768</v>
+        <v>465178</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>466520</v>
+        <v>465768</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>468932</v>
+        <v>466520</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>474682</v>
+        <v>468932</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>475753</v>
+        <v>474682</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>476633</v>
+        <v>475753</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>477800</v>
+        <v>476633</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>479482</v>
+        <v>477800</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>481150</v>
+        <v>479482</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>481151</v>
+        <v>481150</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>483162</v>
+        <v>481151</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>483739</v>
+        <v>483162</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>483755</v>
+        <v>483739</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>493897</v>
+        <v>483755</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>493937</v>
+        <v>493897</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>495116</v>
+        <v>493937</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>497353</v>
+        <v>495116</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>498338</v>
+        <v>497353</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>498537</v>
+        <v>498048</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>498983</v>
+        <v>498338</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>502139</v>
+        <v>498537</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>504038</v>
+        <v>498983</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>506504</v>
+        <v>502139</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>507753</v>
+        <v>504038</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>508083</v>
+        <v>506504</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>511536</v>
+        <v>507753</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>511927</v>
+        <v>508083</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>512170</v>
+        <v>511536</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>514198</v>
+        <v>511927</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>517221</v>
+        <v>512170</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>522074</v>
+        <v>514198</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>523377</v>
+        <v>517221</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>525673</v>
+        <v>522074</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>537303</v>
+        <v>523377</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>538789</v>
+        <v>537303</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>539851</v>
+        <v>538789</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>541659</v>
+        <v>539851</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>553964</v>
+        <v>541659</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>563775</v>
+        <v>553964</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>569511</v>
+        <v>563775</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>571727</v>
+        <v>569511</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>572146</v>
+        <v>569828</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>572697</v>
+        <v>571727</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>574201</v>
+        <v>572146</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>576170</v>
+        <v>572697</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>578011</v>
+        <v>574201</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>578224</v>
+        <v>576170</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>582746</v>
+        <v>578011</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>582843</v>
+        <v>578224</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>583212</v>
+        <v>582746</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>587676</v>
+        <v>582843</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>588895</v>
+        <v>583212</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>589726</v>
+        <v>587676</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>590491</v>
+        <v>588895</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>596752</v>
+        <v>589726</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>599899</v>
+        <v>596752</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>602812</v>
+        <v>599899</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>607546</v>
+        <v>602812</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>616737</v>
+        <v>607546</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>620124</v>
+        <v>616737</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>620383</v>
+        <v>620124</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>620970</v>
+        <v>620383</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>621367</v>
+        <v>620970</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>621518</v>
+        <v>621367</v>
       </c>
     </row>
     <row r="267" spans="1:1">
@@ -1752,567 +1752,642 @@
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>640687</v>
+        <v>638730</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>640733</v>
+        <v>640687</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>640874</v>
+        <v>640733</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>641497</v>
+        <v>640874</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>643006</v>
+        <v>641497</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>644028</v>
+        <v>643006</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>647058</v>
+        <v>644028</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>647345</v>
+        <v>644074</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>660469</v>
+        <v>647058</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>661529</v>
+        <v>647345</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>661884</v>
+        <v>653365</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>661943</v>
+        <v>660469</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>664367</v>
+        <v>661529</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>664678</v>
+        <v>661884</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>670764</v>
+        <v>661943</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>671000</v>
+        <v>664367</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>689269</v>
+        <v>664678</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>699072</v>
+        <v>670764</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>705435</v>
+        <v>671000</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>709589</v>
+        <v>689269</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>710603</v>
+        <v>694397</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>712366</v>
+        <v>698918</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>713200</v>
+        <v>699072</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>716188</v>
+        <v>705435</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>716728</v>
+        <v>709589</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>716733</v>
+        <v>709617</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>719791</v>
+        <v>710603</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>728383</v>
+        <v>712366</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>730699</v>
+        <v>713167</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>731343</v>
+        <v>713200</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>734436</v>
+        <v>716188</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>738395</v>
+        <v>716728</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>746029</v>
+        <v>716733</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>751333</v>
+        <v>719791</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>753209</v>
+        <v>728383</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>753355</v>
+        <v>730699</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>753444</v>
+        <v>731343</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>759177</v>
+        <v>734436</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>761591</v>
+        <v>734701</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>769655</v>
+        <v>738395</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>773764</v>
+        <v>746029</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>777674</v>
+        <v>751333</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>777784</v>
+        <v>753355</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>780953</v>
+        <v>753444</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>782416</v>
+        <v>759177</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>782556</v>
+        <v>761591</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>782778</v>
+        <v>769655</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>783623</v>
+        <v>773764</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>785106</v>
+        <v>777674</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>795336</v>
+        <v>777784</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>812742</v>
+        <v>780953</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>813346</v>
+        <v>782416</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>819365</v>
+        <v>782556</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>828459</v>
+        <v>782778</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>828523</v>
+        <v>783623</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>832746</v>
+        <v>785106</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>833233</v>
+        <v>795336</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>833745</v>
+        <v>796658</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>836789</v>
+        <v>800543</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>837585</v>
+        <v>812742</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>841386</v>
+        <v>813346</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>844619</v>
+        <v>819365</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>845661</v>
+        <v>828459</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>846591</v>
+        <v>828523</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>849647</v>
+        <v>832746</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>852542</v>
+        <v>833233</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>852759</v>
+        <v>833745</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>852761</v>
+        <v>836789</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>852769</v>
+        <v>837585</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>853085</v>
+        <v>841386</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>854864</v>
+        <v>844619</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>854971</v>
+        <v>845661</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>856251</v>
+        <v>846591</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>857280</v>
+        <v>849647</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>857682</v>
+        <v>852542</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>860012</v>
+        <v>852759</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>861387</v>
+        <v>852761</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>862840</v>
+        <v>852769</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>868033</v>
+        <v>853085</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>869044</v>
+        <v>854864</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>869539</v>
+        <v>854971</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>870649</v>
+        <v>856251</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>881961</v>
+        <v>857280</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>883422</v>
+        <v>857682</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>885152</v>
+        <v>860012</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>886441</v>
+        <v>860286</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>893257</v>
+        <v>861387</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>894371</v>
+        <v>862840</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>898193</v>
+        <v>868033</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>911223</v>
+        <v>869044</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>912599</v>
+        <v>869539</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>913058</v>
+        <v>870649</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>915467</v>
+        <v>881961</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>917044</v>
+        <v>883422</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>917298</v>
+        <v>885152</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>918177</v>
+        <v>886441</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>925568</v>
+        <v>893257</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>925834</v>
+        <v>894371</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>929552</v>
+        <v>898193</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>929813</v>
+        <v>911223</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>930812</v>
+        <v>912599</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>933719</v>
+        <v>913058</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>947766</v>
+        <v>915467</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>952554</v>
+        <v>917044</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>953309</v>
+        <v>917298</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>954705</v>
+        <v>918177</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>959934</v>
+        <v>925568</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>961189</v>
+        <v>925834</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>961447</v>
+        <v>929552</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>963100</v>
+        <v>929813</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>966864</v>
+        <v>930812</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>967541</v>
+        <v>933719</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
+        <v>947766</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388">
+        <v>952554</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389">
+        <v>952584</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390">
+        <v>953309</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391">
+        <v>954705</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392">
+        <v>959934</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393">
+        <v>961189</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394">
+        <v>961447</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395">
+        <v>963100</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396">
+        <v>966817</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397">
+        <v>966864</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398">
+        <v>967541</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399">
         <v>967728</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400">
+        <v>968152</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401">
+        <v>970013</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402">
+        <v>975881</v>
       </c>
     </row>
   </sheetData>

--- a/WS_tags/tag_3154_list.xlsx
+++ b/WS_tags/tag_3154_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A402"/>
+  <dimension ref="A1:A394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,507 +387,507 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>40158</v>
+        <v>35698</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>47870</v>
+        <v>40158</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>88158</v>
+        <v>47870</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>88913</v>
+        <v>88158</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>93795</v>
+        <v>88913</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>108013</v>
+        <v>93795</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>109970</v>
+        <v>108013</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>110883</v>
+        <v>109970</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>118494</v>
+        <v>110883</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>119448</v>
+        <v>118494</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>119648</v>
+        <v>119448</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>119732</v>
+        <v>119648</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>120041</v>
+        <v>119732</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>120365</v>
+        <v>120041</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>121178</v>
+        <v>120365</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>121587</v>
+        <v>121178</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>122332</v>
+        <v>121587</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>122854</v>
+        <v>122332</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>123276</v>
+        <v>122854</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>123558</v>
+        <v>123276</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>123644</v>
+        <v>123558</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>125507</v>
+        <v>123644</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>125559</v>
+        <v>125507</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>126743</v>
+        <v>125559</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>132365</v>
+        <v>126743</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>155451</v>
+        <v>132365</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>159889</v>
+        <v>132503</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>162495</v>
+        <v>155451</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>164962</v>
+        <v>159889</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>165146</v>
+        <v>162495</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>183591</v>
+        <v>164962</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>185651</v>
+        <v>165146</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>188361</v>
+        <v>183591</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>188416</v>
+        <v>185651</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>190831</v>
+        <v>188361</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>193853</v>
+        <v>188416</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>195558</v>
+        <v>190831</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>201298</v>
+        <v>193853</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>204285</v>
+        <v>195558</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>210147</v>
+        <v>201298</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>212269</v>
+        <v>204285</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>215507</v>
+        <v>210147</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>215847</v>
+        <v>212269</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>216611</v>
+        <v>215507</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>217671</v>
+        <v>215847</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>218757</v>
+        <v>216611</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>219976</v>
+        <v>217671</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>224206</v>
+        <v>218757</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>235494</v>
+        <v>224206</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>235828</v>
+        <v>235494</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>238158</v>
+        <v>235828</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>238961</v>
+        <v>238158</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>240503</v>
+        <v>238961</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>241397</v>
+        <v>240503</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>241464</v>
+        <v>241397</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>241681</v>
+        <v>241464</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>241949</v>
+        <v>241681</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>241979</v>
+        <v>241949</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>243059</v>
+        <v>241979</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>243791</v>
+        <v>243059</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>248636</v>
+        <v>243568</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>248969</v>
+        <v>243791</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>253107</v>
+        <v>243861</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>253203</v>
+        <v>248636</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>253716</v>
+        <v>248969</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>254343</v>
+        <v>250759</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>256871</v>
+        <v>253203</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>257341</v>
+        <v>253716</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>258917</v>
+        <v>254343</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>259030</v>
+        <v>256871</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>261906</v>
+        <v>257341</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>262037</v>
+        <v>258917</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>262052</v>
+        <v>259030</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>262739</v>
+        <v>261906</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>263685</v>
+        <v>262037</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>263879</v>
+        <v>262052</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>266904</v>
+        <v>262739</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>268132</v>
+        <v>266904</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>270046</v>
+        <v>268132</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>270540</v>
+        <v>270046</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>271638</v>
+        <v>270540</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>271683</v>
+        <v>271638</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>272018</v>
+        <v>271683</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>272353</v>
+        <v>272018</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>275349</v>
+        <v>272353</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>276715</v>
+        <v>275349</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>280762</v>
+        <v>280491</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>287730</v>
+        <v>280762</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>287916</v>
+        <v>286200</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>288064</v>
+        <v>287730</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>288562</v>
+        <v>287916</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>289177</v>
+        <v>288064</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>289755</v>
+        <v>288562</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>289995</v>
+        <v>289177</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>290779</v>
+        <v>289755</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>290987</v>
+        <v>289995</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>292572</v>
+        <v>290779</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>292615</v>
+        <v>290987</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>294472</v>
+        <v>292572</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>294856</v>
+        <v>292615</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>294977</v>
+        <v>294472</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -1012,1382 +1012,1342 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>322121</v>
+        <v>322804</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>322804</v>
+        <v>325832</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>325832</v>
+        <v>328095</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>328095</v>
+        <v>328568</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>328568</v>
+        <v>338343</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>332383</v>
+        <v>342652</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>337417</v>
+        <v>342991</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>338343</v>
+        <v>346257</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>342652</v>
+        <v>346459</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>342991</v>
+        <v>347902</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>346257</v>
+        <v>347951</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>346459</v>
+        <v>348350</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>347487</v>
+        <v>350017</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>347902</v>
+        <v>351523</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>347951</v>
+        <v>354051</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>348350</v>
+        <v>354244</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>350017</v>
+        <v>355804</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>351523</v>
+        <v>356267</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>354051</v>
+        <v>357126</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>354244</v>
+        <v>358232</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>355804</v>
+        <v>359990</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>356267</v>
+        <v>363882</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>357126</v>
+        <v>365589</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>358232</v>
+        <v>367820</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>359990</v>
+        <v>370704</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>363882</v>
+        <v>376626</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>365589</v>
+        <v>378073</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>367820</v>
+        <v>380135</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>370704</v>
+        <v>381548</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>376626</v>
+        <v>382187</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>378073</v>
+        <v>382699</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>380135</v>
+        <v>386262</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>381548</v>
+        <v>386283</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>382187</v>
+        <v>386398</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>382699</v>
+        <v>390610</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>386262</v>
+        <v>390714</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>386283</v>
+        <v>391863</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>386398</v>
+        <v>392571</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>390610</v>
+        <v>394382</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>390714</v>
+        <v>397916</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>391863</v>
+        <v>398172</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>392571</v>
+        <v>398689</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>394382</v>
+        <v>405089</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>396409</v>
+        <v>408511</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>397916</v>
+        <v>409419</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>398172</v>
+        <v>409481</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>398689</v>
+        <v>410115</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>401250</v>
+        <v>413185</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>405089</v>
+        <v>417267</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>408511</v>
+        <v>417303</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>409419</v>
+        <v>417423</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>409481</v>
+        <v>418806</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>410115</v>
+        <v>421205</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>413185</v>
+        <v>424246</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>417267</v>
+        <v>424383</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>417303</v>
+        <v>428684</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>417423</v>
+        <v>429027</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>418806</v>
+        <v>434146</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>421205</v>
+        <v>434213</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>424246</v>
+        <v>436846</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>424383</v>
+        <v>437072</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>428684</v>
+        <v>443593</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>429027</v>
+        <v>447687</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>434146</v>
+        <v>448337</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>434213</v>
+        <v>452720</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>436846</v>
+        <v>455092</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>437072</v>
+        <v>456139</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>443593</v>
+        <v>462339</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>447687</v>
+        <v>463498</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>448337</v>
+        <v>464565</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>452720</v>
+        <v>465178</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>455092</v>
+        <v>465768</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>456139</v>
+        <v>466520</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>462339</v>
+        <v>468932</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>463498</v>
+        <v>475299</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>464565</v>
+        <v>475753</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>465178</v>
+        <v>476633</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>465768</v>
+        <v>479482</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>466520</v>
+        <v>481150</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>468932</v>
+        <v>481151</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>474682</v>
+        <v>483162</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>475753</v>
+        <v>483739</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>476633</v>
+        <v>483755</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>477800</v>
+        <v>493897</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>479482</v>
+        <v>493937</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>481150</v>
+        <v>495116</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>481151</v>
+        <v>497353</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>483162</v>
+        <v>498048</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>483739</v>
+        <v>498338</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>483755</v>
+        <v>498537</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>493897</v>
+        <v>498983</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>493937</v>
+        <v>502139</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>495116</v>
+        <v>504038</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>497353</v>
+        <v>506504</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>498048</v>
+        <v>507753</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>498338</v>
+        <v>508083</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>498537</v>
+        <v>511536</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>498983</v>
+        <v>511927</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>502139</v>
+        <v>512170</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>504038</v>
+        <v>514198</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>506504</v>
+        <v>517221</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>507753</v>
+        <v>522074</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>508083</v>
+        <v>523377</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>511536</v>
+        <v>537303</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>511927</v>
+        <v>538789</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>512170</v>
+        <v>539851</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>514198</v>
+        <v>541659</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>517221</v>
+        <v>545114</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>522074</v>
+        <v>553964</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>523377</v>
+        <v>563775</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>537303</v>
+        <v>569511</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>538789</v>
+        <v>571727</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>539851</v>
+        <v>572146</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>541659</v>
+        <v>572697</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>553964</v>
+        <v>574201</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>563775</v>
+        <v>576170</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>569511</v>
+        <v>578011</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>569828</v>
+        <v>582746</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>571727</v>
+        <v>582843</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>572146</v>
+        <v>583212</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>572697</v>
+        <v>587676</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>574201</v>
+        <v>588895</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>576170</v>
+        <v>589726</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>578011</v>
+        <v>596752</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>578224</v>
+        <v>599899</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>582746</v>
+        <v>607546</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>582843</v>
+        <v>616737</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>583212</v>
+        <v>620124</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>587676</v>
+        <v>620383</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>588895</v>
+        <v>620970</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>589726</v>
+        <v>621367</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>596752</v>
+        <v>628868</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>599899</v>
+        <v>634069</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>602812</v>
+        <v>634536</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>607546</v>
+        <v>635490</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>616737</v>
+        <v>635643</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>620124</v>
+        <v>636745</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>620383</v>
+        <v>638180</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>620970</v>
+        <v>638702</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>621367</v>
+        <v>638730</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>628868</v>
+        <v>640687</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>634069</v>
+        <v>640733</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>634536</v>
+        <v>640874</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>635490</v>
+        <v>641497</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>635643</v>
+        <v>643006</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>636745</v>
+        <v>644028</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>638180</v>
+        <v>644074</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>638702</v>
+        <v>647058</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>638730</v>
+        <v>647345</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>640687</v>
+        <v>653365</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>640733</v>
+        <v>660469</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>640874</v>
+        <v>661529</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>641497</v>
+        <v>661884</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>643006</v>
+        <v>661943</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>644028</v>
+        <v>664367</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>644074</v>
+        <v>664678</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>647058</v>
+        <v>670764</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>647345</v>
+        <v>671000</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>653365</v>
+        <v>689269</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>660469</v>
+        <v>694397</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>661529</v>
+        <v>698918</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>661884</v>
+        <v>705435</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>661943</v>
+        <v>709589</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>664367</v>
+        <v>709617</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>664678</v>
+        <v>710603</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>670764</v>
+        <v>712366</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>671000</v>
+        <v>713167</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>689269</v>
+        <v>713200</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>694397</v>
+        <v>716188</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>698918</v>
+        <v>716728</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>699072</v>
+        <v>716733</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>705435</v>
+        <v>719791</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>709589</v>
+        <v>728383</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>709617</v>
+        <v>730699</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>710603</v>
+        <v>731343</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>712366</v>
+        <v>734701</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>713167</v>
+        <v>738395</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>713200</v>
+        <v>746029</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>716188</v>
+        <v>751333</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>716728</v>
+        <v>753355</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>716733</v>
+        <v>753444</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>719791</v>
+        <v>759177</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>728383</v>
+        <v>761591</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>730699</v>
+        <v>769655</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>731343</v>
+        <v>773764</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>734436</v>
+        <v>777674</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>734701</v>
+        <v>777784</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>738395</v>
+        <v>780953</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>746029</v>
+        <v>782416</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>751333</v>
+        <v>782556</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>753355</v>
+        <v>783623</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>753444</v>
+        <v>785106</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>759177</v>
+        <v>790601</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>761591</v>
+        <v>795336</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>769655</v>
+        <v>796658</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>773764</v>
+        <v>800543</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>777674</v>
+        <v>812742</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>777784</v>
+        <v>813346</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>780953</v>
+        <v>819365</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>782416</v>
+        <v>828459</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>782556</v>
+        <v>828523</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>782778</v>
+        <v>832746</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>783623</v>
+        <v>833233</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>785106</v>
+        <v>833745</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>795336</v>
+        <v>836789</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>796658</v>
+        <v>837585</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>800543</v>
+        <v>841386</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>812742</v>
+        <v>844619</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>813346</v>
+        <v>845661</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>819365</v>
+        <v>846591</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>828459</v>
+        <v>849647</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>828523</v>
+        <v>852542</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>832746</v>
+        <v>852759</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>833233</v>
+        <v>852761</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>833745</v>
+        <v>852769</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>836789</v>
+        <v>853085</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>837585</v>
+        <v>854864</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>841386</v>
+        <v>854971</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>844619</v>
+        <v>856251</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>845661</v>
+        <v>857280</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>846591</v>
+        <v>857682</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>849647</v>
+        <v>860012</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>852542</v>
+        <v>860286</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>852759</v>
+        <v>861387</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>852761</v>
+        <v>862840</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>852769</v>
+        <v>868033</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>853085</v>
+        <v>869044</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>854864</v>
+        <v>869539</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>854971</v>
+        <v>870331</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>856251</v>
+        <v>881961</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>857280</v>
+        <v>883422</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>857682</v>
+        <v>885152</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>860012</v>
+        <v>886441</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>860286</v>
+        <v>893257</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>861387</v>
+        <v>894371</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>862840</v>
+        <v>898193</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>868033</v>
+        <v>911223</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>869044</v>
+        <v>912599</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>869539</v>
+        <v>913058</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>870649</v>
+        <v>915467</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>881961</v>
+        <v>917044</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>883422</v>
+        <v>917298</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>885152</v>
+        <v>918177</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>886441</v>
+        <v>925568</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>893257</v>
+        <v>925834</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>894371</v>
+        <v>929552</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>898193</v>
+        <v>929813</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>911223</v>
+        <v>930812</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>912599</v>
+        <v>933719</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>913058</v>
+        <v>947766</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>915467</v>
+        <v>952554</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>917044</v>
+        <v>952584</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>917298</v>
+        <v>953309</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>918177</v>
+        <v>954705</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>925568</v>
+        <v>959934</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>925834</v>
+        <v>961189</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>929552</v>
+        <v>961447</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>929813</v>
+        <v>963100</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>930812</v>
+        <v>966817</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>933719</v>
+        <v>966864</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>947766</v>
+        <v>967541</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>952554</v>
+        <v>967728</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>952584</v>
+        <v>968152</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>953309</v>
+        <v>968713</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>954705</v>
+        <v>970013</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>959934</v>
+        <v>975881</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>961189</v>
+        <v>976036</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>961447</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395">
-        <v>963100</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396">
-        <v>966817</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397">
-        <v>966864</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398">
-        <v>967541</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399">
-        <v>967728</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400">
-        <v>968152</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401">
-        <v>970013</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402">
-        <v>975881</v>
+        <v>982559</v>
       </c>
     </row>
   </sheetData>
